--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1269109.995229657</v>
+        <v>1266731.071024653</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>224.7411810187692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826015</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>83.11054276761928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>17.12870146207423</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>249.5456553076237</v>
+        <v>37.9096937628732</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>26.48323333968215</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>20.95866062610929</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814396</v>
+        <v>171.1167978045342</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>72.08802744677264</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>121.8713578254465</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>170.8079800483183</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>185.6485324930579</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,19 +1819,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.8815856715451</v>
+        <v>176.3998725327401</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>66.87436598774617</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.48955078545491</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784668</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>31.91478052683765</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>134.3198522385038</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016521</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
-        <v>31.24750433886444</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G28" t="n">
-        <v>28.23631843387907</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986326</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>18.70843787976792</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.825382616189214</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C34" t="n">
-        <v>155.1980648094029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,7 +3196,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>24.27150084979029</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>62.64725059288514</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>173.6930521279886</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>71.76895293959859</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,13 +4343,13 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520487</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2392.186779586323</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4425,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.6793464139411</v>
+        <v>252.7500180086501</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>83.81383508074322</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>83.81383508074322</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>83.81383508074322</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>83.81383508074322</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877109</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877109</v>
+        <v>507.434506214537</v>
       </c>
       <c r="V4" t="n">
-        <v>699.1203903877109</v>
+        <v>252.7500180086501</v>
       </c>
       <c r="W4" t="n">
-        <v>699.1203903877109</v>
+        <v>252.7500180086501</v>
       </c>
       <c r="X4" t="n">
-        <v>699.1203903877109</v>
+        <v>252.7500180086501</v>
       </c>
       <c r="Y4" t="n">
-        <v>478.3278112441808</v>
+        <v>252.7500180086501</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.569348694473</v>
+        <v>1681.836054204826</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.606831754061</v>
+        <v>1312.873537264415</v>
       </c>
       <c r="D5" t="n">
-        <v>764.341133147311</v>
+        <v>954.6078386576642</v>
       </c>
       <c r="E5" t="n">
-        <v>378.5528805490667</v>
+        <v>568.8195860594199</v>
       </c>
       <c r="F5" t="n">
-        <v>371.6073797998633</v>
+        <v>561.8740853102164</v>
       </c>
       <c r="G5" t="n">
-        <v>360.5753336852638</v>
+        <v>146.8016351552129</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758595</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.5885343609918</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C7" t="n">
-        <v>190.5885343609918</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D7" t="n">
-        <v>190.5885343609918</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E7" t="n">
-        <v>190.5885343609918</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F7" t="n">
-        <v>190.5885343609918</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>190.5885343609918</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>639.3706644025392</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V7" t="n">
-        <v>639.3706644025392</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W7" t="n">
-        <v>639.3706644025392</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X7" t="n">
-        <v>411.3811135045219</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.5885343609918</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>751.9508228902781</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>601.8341834779424</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>453.9210898955492</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>307.0311423976389</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>139.3283057723578</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>139.3283057723578</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>417.6040489720659</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687995</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131321</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629332</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936165</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="S13" t="n">
-        <v>1257.700706964858</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T13" t="n">
-        <v>1257.700706964858</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U13" t="n">
-        <v>1257.700706964858</v>
+        <v>749.0240153319955</v>
       </c>
       <c r="V13" t="n">
-        <v>1257.700706964858</v>
+        <v>494.3395271261087</v>
       </c>
       <c r="W13" t="n">
-        <v>1070.17693676985</v>
+        <v>494.3395271261087</v>
       </c>
       <c r="X13" t="n">
-        <v>1070.17693676985</v>
+        <v>266.3499762280914</v>
       </c>
       <c r="Y13" t="n">
-        <v>849.3843576263199</v>
+        <v>266.3499762280914</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>739.535451687217</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1336.913939313769</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>404.4646771336807</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="C16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687995</v>
       </c>
       <c r="K16" t="n">
-        <v>296.7657364131323</v>
+        <v>296.765736413132</v>
       </c>
       <c r="L16" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629331</v>
       </c>
       <c r="M16" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936164</v>
       </c>
       <c r="N16" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O16" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P16" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q16" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="R16" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562354</v>
       </c>
       <c r="S16" t="n">
-        <v>1257.700706964858</v>
+        <v>1190.655003217259</v>
       </c>
       <c r="T16" t="n">
-        <v>1038.099241987799</v>
+        <v>971.0535382401997</v>
       </c>
       <c r="U16" t="n">
-        <v>806.9057211074505</v>
+        <v>792.8718488131894</v>
       </c>
       <c r="V16" t="n">
-        <v>806.9057211074505</v>
+        <v>792.8718488131894</v>
       </c>
       <c r="W16" t="n">
-        <v>806.9057211074505</v>
+        <v>503.4546787762289</v>
       </c>
       <c r="X16" t="n">
-        <v>806.9057211074505</v>
+        <v>275.4651278782115</v>
       </c>
       <c r="Y16" t="n">
-        <v>586.1131419639204</v>
+        <v>275.4651278782115</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,61 +5504,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687995</v>
       </c>
       <c r="K19" t="n">
-        <v>296.7657364131322</v>
+        <v>296.765736413132</v>
       </c>
       <c r="L19" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629331</v>
       </c>
       <c r="M19" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936164</v>
       </c>
       <c r="N19" t="n">
         <v>1018.909846477608</v>
@@ -5692,31 +5692,31 @@
         <v>1386.046835377027</v>
       </c>
       <c r="Q19" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309952</v>
       </c>
       <c r="R19" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562354</v>
       </c>
       <c r="S19" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562354</v>
       </c>
       <c r="T19" t="n">
-        <v>1440.555541309953</v>
+        <v>1153.908372585295</v>
       </c>
       <c r="U19" t="n">
-        <v>1440.555541309953</v>
+        <v>864.8331459294932</v>
       </c>
       <c r="V19" t="n">
-        <v>1440.555541309953</v>
+        <v>610.1486577236063</v>
       </c>
       <c r="W19" t="n">
-        <v>1151.138371272992</v>
+        <v>542.5987930895193</v>
       </c>
       <c r="X19" t="n">
-        <v>923.1488203749748</v>
+        <v>314.6092421915019</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>93.81666304797183</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5768,31 +5768,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.631947528456</v>
+        <v>462.1860973083095</v>
       </c>
       <c r="C22" t="n">
-        <v>923.6957646005487</v>
+        <v>293.2499143804026</v>
       </c>
       <c r="D22" t="n">
-        <v>773.579125188213</v>
+        <v>293.2499143804026</v>
       </c>
       <c r="E22" t="n">
-        <v>625.6660316058199</v>
+        <v>293.2499143804026</v>
       </c>
       <c r="F22" t="n">
-        <v>478.7760841079095</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>311.5799848227895</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>330.0656153226282</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>720.4642094985683</v>
       </c>
       <c r="M22" t="n">
-        <v>1129.437033731424</v>
+        <v>1142.473912229603</v>
       </c>
       <c r="N22" t="n">
-        <v>1546.846905391432</v>
+        <v>1559.883783889611</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.376186100417</v>
+        <v>1916.376186100451</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673976</v>
+        <v>2209.051641674009</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400875</v>
+        <v>2328.249876400909</v>
       </c>
       <c r="R22" t="n">
-        <v>2328.249876400875</v>
+        <v>2328.249876400909</v>
       </c>
       <c r="S22" t="n">
-        <v>2328.249876400875</v>
+        <v>2145.395042055806</v>
       </c>
       <c r="T22" t="n">
-        <v>2328.249876400875</v>
+        <v>1925.793577078747</v>
       </c>
       <c r="U22" t="n">
-        <v>2039.174649745073</v>
+        <v>1636.718350422944</v>
       </c>
       <c r="V22" t="n">
-        <v>1784.490161539186</v>
+        <v>1382.033862217058</v>
       </c>
       <c r="W22" t="n">
-        <v>1495.072991502225</v>
+        <v>1092.616692180097</v>
       </c>
       <c r="X22" t="n">
-        <v>1495.072991502225</v>
+        <v>864.6271412820794</v>
       </c>
       <c r="Y22" t="n">
-        <v>1274.280412358695</v>
+        <v>643.8345621385492</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,7 +6005,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,19 +6066,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4041655335318</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>664.287526121196</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>516.3744325388029</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>264.0500279773688</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>264.0500279773688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876671</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121596</v>
+        <v>411.9631215597602</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998238</v>
+        <v>261.8464821474245</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000582</v>
+        <v>261.8464821474245</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2172.545877962526</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1883.470651306724</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1628.786163100837</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1339.368993063877</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.379442165859</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132772</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797186</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069454</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>633.4413279836774</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.882371957447</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>815.0897928139171</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>415.5933575433587</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9559,19 +9559,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>58.59733042521776</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>149.8731022263418</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-3.513749910243533e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>9.024000133618955</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>100.8744658435331</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.30288871769903</v>
+        <v>109.784601856504</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922764</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>219.6486323488448</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.0951025666399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>113.5062674960936</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>5.974860607720045</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
-        <v>114.1735436840668</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G28" t="n">
-        <v>137.2878198583898</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>127.7255247668012</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.595665406742</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C34" t="n">
-        <v>12.04875628922497</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922736</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>193.133949477498</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819418</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>85.96822242532721</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922734</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>52.01660326104852</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>73.65209508333265</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585131</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>900719.5099585137</v>
+        <v>900719.5099585131</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900719.5099585135</v>
+        <v>900719.5099585133</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>938424.7841385822</v>
+        <v>938424.7841385832</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>943467.188768815</v>
+        <v>943467.1887688148</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>943467.188768815</v>
+        <v>943467.1887688149</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>943467.1887688148</v>
+        <v>943467.1887688149</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>943467.1887688149</v>
+        <v>943467.1887688148</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>943467.188768815</v>
+        <v>943467.1887688149</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
@@ -26320,40 +26320,40 @@
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469940.6138913981</v>
+        <v>469940.613891398</v>
       </c>
       <c r="F2" t="n">
-        <v>469940.6138913982</v>
+        <v>469940.6138913978</v>
       </c>
       <c r="G2" t="n">
         <v>469940.6138913981</v>
       </c>
       <c r="H2" t="n">
-        <v>482595.5843324543</v>
+        <v>482595.5843324546</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835453</v>
+        <v>761.3882086835449</v>
       </c>
       <c r="F4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835448</v>
       </c>
       <c r="G4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835448</v>
       </c>
       <c r="H4" t="n">
-        <v>14243.58217073112</v>
+        <v>14243.58217073165</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26451,7 +26451,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26525,43 +26525,43 @@
         <v>291094.377253124</v>
       </c>
       <c r="D6" t="n">
-        <v>291094.377253124</v>
+        <v>291094.3772531236</v>
       </c>
       <c r="E6" t="n">
-        <v>42644.23405145211</v>
+        <v>42549.71551800625</v>
       </c>
       <c r="F6" t="n">
-        <v>368056.6958588075</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="G6" t="n">
-        <v>368056.6958588076</v>
+        <v>367962.1773253609</v>
       </c>
       <c r="H6" t="n">
-        <v>367229.4723378161</v>
+        <v>367187.6828478736</v>
       </c>
       <c r="I6" t="n">
-        <v>367118.8460182045</v>
+        <v>367084.1080927686</v>
       </c>
       <c r="J6" t="n">
-        <v>149587.6436209271</v>
+        <v>149552.9056954914</v>
       </c>
       <c r="K6" t="n">
-        <v>367118.8460182046</v>
+        <v>367084.1080927687</v>
       </c>
       <c r="L6" t="n">
-        <v>367118.8460182045</v>
+        <v>367084.1080927689</v>
       </c>
       <c r="M6" t="n">
-        <v>282063.8180826927</v>
+        <v>282029.0801572572</v>
       </c>
       <c r="N6" t="n">
-        <v>367118.8460182046</v>
+        <v>367084.1080927686</v>
       </c>
       <c r="O6" t="n">
-        <v>367118.8460182045</v>
+        <v>367084.1080927686</v>
       </c>
       <c r="P6" t="n">
-        <v>367118.8460182045</v>
+        <v>367084.108092769</v>
       </c>
     </row>
   </sheetData>
@@ -26741,16 +26741,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>144.9899196596998</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.549601273452</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>84.13627833100855</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>148.897106796954</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>45.0621090796968</v>
+        <v>256.6980706244473</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>118.2717815746386</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>197.6259927259855</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803251</v>
+        <v>198.6143028739349</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>24.26439296306545</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>164.3404803801664</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="C31" t="n">
-        <v>-3.109469020701095e-12</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29919,7 +29919,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-2.920938348146081e-12</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -30393,7 +30393,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.461131202643</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>613.2529048371034</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>302.3396059822683</v>
       </c>
       <c r="M15" t="n">
-        <v>652.0478969157699</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>746.4857620875799</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106288</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016576</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32716,7 +32716,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>186.6878763515707</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33497,37 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.529959444714</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,40 +33731,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>698.8508668798656</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>235.5705495535881</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34208,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>535.8585467435953</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34451,31 +34451,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>661.8411144019733</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597634</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>471.118870915085</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194022999</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915994</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401628</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214687</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>163.7852262023941</v>
       </c>
       <c r="M15" t="n">
-        <v>509.9138629937516</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.41024194023008</v>
+        <v>47.41024194022997</v>
       </c>
       <c r="K16" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649823</v>
       </c>
       <c r="L16" t="n">
-        <v>231.8673127775771</v>
+        <v>231.8673127775769</v>
       </c>
       <c r="M16" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915993</v>
       </c>
       <c r="N16" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454455</v>
       </c>
       <c r="O16" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401628</v>
       </c>
       <c r="P16" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925837</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.05929892214692</v>
+        <v>55.05929892214681</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>615.1440500042467</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629853</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194022997</v>
       </c>
       <c r="K19" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649823</v>
       </c>
       <c r="L19" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775769</v>
       </c>
       <c r="M19" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915993</v>
       </c>
       <c r="N19" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454455</v>
       </c>
       <c r="O19" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401628</v>
       </c>
       <c r="P19" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925837</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214681</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>368.0351523183243</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>306.3600965168172</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>360.0933355665047</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>44.0916319071262</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648398</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>556.7168329578473</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>92.97430510914361</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37707,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>617.4751655948025</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.2623022991509</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>519.707080479955</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
